--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="48">
   <si>
     <t>10月</t>
     <rPh sb="0" eb="1">
@@ -310,6 +310,13 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>計</t>
@@ -1169,7 +1176,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L11" si="0">SUM(M5:EB5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -2331,8 +2338,12 @@
       <c r="AM5" s="12">
         <v>2</v>
       </c>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
+      <c r="AN5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>1</v>
+      </c>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
@@ -3331,7 +3342,9 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3339,16 +3352,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="7">
-        <f>SUM(K4:K11)</f>
-        <v>180</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="7">
-        <f>SUM(L4:L11)</f>
-        <v>6</v>
+        <f>SUM(M12:EB12)</f>
+        <v>5</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3376,9 +3384,15 @@
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
+      <c r="AM12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>2</v>
+      </c>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
@@ -3484,8 +3498,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7">
+        <f>SUM(L4:L12)</f>
+        <v>13</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L11" si="0">SUM(M5:EB5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -2347,7 +2347,9 @@
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
+      <c r="AS5" s="12">
+        <v>2</v>
+      </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
@@ -3356,7 +3358,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f>SUM(M12:EB12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3395,8 +3397,12 @@
       </c>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AR12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>1</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="12"/>
@@ -3503,7 +3509,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="48">
   <si>
     <t>10月</t>
     <rPh sb="0" eb="1">
@@ -310,6 +310,13 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>計</t>
@@ -1169,7 +1176,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L11" si="0">SUM(M5:EB5)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -2331,12 +2338,18 @@
       <c r="AM5" s="12">
         <v>2</v>
       </c>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
+      <c r="AN5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>1</v>
+      </c>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
+      <c r="AS5" s="12">
+        <v>2</v>
+      </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
@@ -3331,7 +3344,9 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3339,16 +3354,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="7">
-        <f>SUM(K4:K11)</f>
-        <v>180</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="7">
-        <f>SUM(L4:L11)</f>
-        <v>6</v>
+        <f>SUM(M12:EB12)</f>
+        <v>9</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3376,13 +3386,23 @@
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
+      <c r="AM12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>2</v>
+      </c>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AR12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>1</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="12"/>
@@ -3484,8 +3504,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7">
+        <f>SUM(L4:L12)</f>
+        <v>19</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2508,17 +2508,27 @@
       <c r="AZ6" s="12"/>
       <c r="BA6" s="12"/>
       <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
+      <c r="BC6" s="12">
+        <v>5</v>
+      </c>
       <c r="BD6" s="12"/>
       <c r="BE6" s="12"/>
       <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
+      <c r="BG6" s="12">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="12">
+        <v>5</v>
+      </c>
       <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
+      <c r="BJ6" s="12">
+        <v>3</v>
+      </c>
       <c r="BK6" s="12"/>
       <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
+      <c r="BM6" s="12">
+        <v>3</v>
+      </c>
       <c r="BN6" s="12"/>
       <c r="BO6" s="12"/>
       <c r="BP6" s="12"/>
@@ -3358,7 +3368,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f>SUM(M12:EB12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3419,7 +3429,9 @@
       <c r="BG12" s="12"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
-      <c r="BJ12" s="12"/>
+      <c r="BJ12" s="12">
+        <v>2</v>
+      </c>
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
       <c r="BM12" s="12"/>
@@ -3509,7 +3521,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC8" sqref="BC8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN6" sqref="BN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2529,8 +2529,12 @@
       <c r="BM6" s="12">
         <v>3</v>
       </c>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
+      <c r="BN6" s="12">
+        <v>3</v>
+      </c>
+      <c r="BO6" s="12">
+        <v>5</v>
+      </c>
       <c r="BP6" s="12"/>
       <c r="BQ6" s="12"/>
       <c r="BR6" s="12"/>
@@ -3521,7 +3525,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN6" sqref="BN6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2535,8 +2535,12 @@
       <c r="BO6" s="12">
         <v>5</v>
       </c>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
+      <c r="BP6" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ6" s="12">
+        <v>5</v>
+      </c>
       <c r="BR6" s="12"/>
       <c r="BS6" s="12"/>
       <c r="BT6" s="12"/>
@@ -3525,7 +3529,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ7" sqref="BQ7"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BT7" sqref="BT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2543,7 +2543,9 @@
       </c>
       <c r="BR6" s="12"/>
       <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
+      <c r="BT6" s="12">
+        <v>5</v>
+      </c>
       <c r="BU6" s="12"/>
       <c r="BV6" s="12"/>
       <c r="BW6" s="12"/>
@@ -3529,7 +3531,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -381,7 +381,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +576,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BT7" sqref="BT7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2120,22 +2135,22 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="27">
         <v>43521</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="27">
         <v>43523</v>
       </c>
       <c r="H4" s="10"/>
@@ -2281,22 +2296,22 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="27">
         <v>43524</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="27">
         <v>43538</v>
       </c>
       <c r="H5" s="10"/>
@@ -3378,7 +3393,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f>SUM(M12:EB12)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3452,7 +3467,9 @@
       <c r="BR12" s="12"/>
       <c r="BS12" s="12"/>
       <c r="BT12" s="12"/>
-      <c r="BU12" s="12"/>
+      <c r="BU12" s="12">
+        <v>3</v>
+      </c>
       <c r="BV12" s="12"/>
       <c r="BW12" s="12"/>
       <c r="BX12" s="12"/>
@@ -3531,7 +3548,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -548,6 +548,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,15 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BX7" sqref="BX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1226,166 +1226,166 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="16"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="19"/>
       <c r="BS1" s="14"/>
-      <c r="BT1" s="17" t="s">
+      <c r="BT1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="18" t="s">
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
     </row>
     <row r="2" spans="1:132" ht="14.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1750,11 +1750,11 @@
       </c>
     </row>
     <row r="3" spans="1:132" ht="17.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1767,9 +1767,9 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -2135,22 +2135,22 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="17">
         <v>43521</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="17">
         <v>43523</v>
       </c>
       <c r="H4" s="10"/>
@@ -2296,22 +2296,22 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="17">
         <v>43524</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="17">
         <v>43538</v>
       </c>
       <c r="H5" s="10"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2562,8 +2562,12 @@
         <v>5</v>
       </c>
       <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
+      <c r="BV6" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW6" s="12">
+        <v>3</v>
+      </c>
       <c r="BX6" s="12"/>
       <c r="BY6" s="12"/>
       <c r="BZ6" s="12"/>
@@ -3548,7 +3552,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -4850,169 +4854,169 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="17" t="s">
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="18" t="s">
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
     </row>
     <row r="2" spans="1:135" ht="14.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -5386,11 +5390,11 @@
       </c>
     </row>
     <row r="3" spans="1:135" ht="17.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -5403,9 +5407,9 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -9204,169 +9208,169 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="17" t="s">
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="18" t="s">
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
     </row>
     <row r="2" spans="1:135" ht="14.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -9740,11 +9744,11 @@
       </c>
     </row>
     <row r="3" spans="1:135" ht="17.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -9757,9 +9761,9 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -13553,169 +13557,169 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="17" t="s">
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="18" t="s">
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
     </row>
     <row r="2" spans="1:135" ht="14.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -14089,11 +14093,11 @@
       </c>
     </row>
     <row r="3" spans="1:135" ht="17.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -14106,9 +14110,9 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BX7" sqref="BX7"/>
     </sheetView>
   </sheetViews>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2568,7 +2568,9 @@
       <c r="BW6" s="12">
         <v>3</v>
       </c>
-      <c r="BX6" s="12"/>
+      <c r="BX6" s="12">
+        <v>5</v>
+      </c>
       <c r="BY6" s="12"/>
       <c r="BZ6" s="12"/>
       <c r="CA6" s="12"/>
@@ -3552,7 +3554,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BX7" sqref="BX7"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD7" sqref="CD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2573,10 +2573,16 @@
       </c>
       <c r="BY6" s="12"/>
       <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
+      <c r="CA6" s="12">
+        <v>3</v>
+      </c>
+      <c r="CB6" s="12">
+        <v>3</v>
+      </c>
       <c r="CC6" s="12"/>
-      <c r="CD6" s="12"/>
+      <c r="CD6" s="12">
+        <v>2</v>
+      </c>
       <c r="CE6" s="12"/>
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
@@ -3399,7 +3405,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7">
         <f>SUM(M12:EB12)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3481,7 +3487,9 @@
       <c r="BX12" s="12"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
-      <c r="CA12" s="12"/>
+      <c r="CA12" s="12">
+        <v>3</v>
+      </c>
       <c r="CB12" s="12"/>
       <c r="CC12" s="12"/>
       <c r="CD12" s="12"/>
@@ -3554,7 +3562,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD7" sqref="CD7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CE7" sqref="CE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2583,7 +2583,9 @@
       <c r="CD6" s="12">
         <v>2</v>
       </c>
-      <c r="CE6" s="12"/>
+      <c r="CE6" s="12">
+        <v>5</v>
+      </c>
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
       <c r="CH6" s="12"/>
@@ -3562,7 +3564,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CE7" sqref="CE7"/>
+      <selection activeCell="CI6" sqref="CI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2588,8 +2588,12 @@
       </c>
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="12"/>
+      <c r="CH6" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="12">
+        <v>3</v>
+      </c>
       <c r="CJ6" s="12"/>
       <c r="CK6" s="12"/>
       <c r="CL6" s="12"/>
@@ -3564,7 +3568,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CI6" sqref="CI6"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CJ8" sqref="CJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2743,7 +2743,9 @@
       <c r="CG7" s="12"/>
       <c r="CH7" s="12"/>
       <c r="CI7" s="12"/>
-      <c r="CJ7" s="12"/>
+      <c r="CJ7" s="12">
+        <v>4</v>
+      </c>
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
       <c r="CM7" s="12"/>
@@ -3568,7 +3570,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ8" sqref="CJ8"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CL8" sqref="CL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2746,8 +2746,12 @@
       <c r="CJ7" s="12">
         <v>4</v>
       </c>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
+      <c r="CK7" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="12">
+        <v>2</v>
+      </c>
       <c r="CM7" s="12"/>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
@@ -3570,7 +3574,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CL8" sqref="CL8"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CR9" sqref="CR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2755,9 +2755,13 @@
       <c r="CM7" s="12"/>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
+      <c r="CP7" s="12">
+        <v>3</v>
+      </c>
       <c r="CQ7" s="12"/>
-      <c r="CR7" s="12"/>
+      <c r="CR7" s="12">
+        <v>3</v>
+      </c>
       <c r="CS7" s="12"/>
       <c r="CT7" s="12"/>
       <c r="CU7" s="12"/>
@@ -3574,7 +3578,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CR9" sqref="CR9"/>
+      <selection activeCell="CS8" sqref="CS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2762,7 +2762,9 @@
       <c r="CR7" s="12">
         <v>3</v>
       </c>
-      <c r="CS7" s="12"/>
+      <c r="CS7" s="12">
+        <v>3</v>
+      </c>
       <c r="CT7" s="12"/>
       <c r="CU7" s="12"/>
       <c r="CV7" s="12"/>
@@ -3578,7 +3580,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CS8" sqref="CS8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DE8" sqref="DE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2776,7 +2776,9 @@
       <c r="DB7" s="12"/>
       <c r="DC7" s="12"/>
       <c r="DD7" s="12"/>
-      <c r="DE7" s="12"/>
+      <c r="DE7" s="12">
+        <v>6</v>
+      </c>
       <c r="DF7" s="12"/>
       <c r="DG7" s="12"/>
       <c r="DH7" s="12"/>
@@ -3580,7 +3582,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CS8" sqref="CS8"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DI7" sqref="DI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2775,13 +2775,23 @@
       <c r="DA7" s="12"/>
       <c r="DB7" s="12"/>
       <c r="DC7" s="12"/>
-      <c r="DD7" s="12"/>
-      <c r="DE7" s="12"/>
-      <c r="DF7" s="12"/>
-      <c r="DG7" s="12"/>
+      <c r="DD7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DE7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DF7" s="12">
+        <v>3</v>
+      </c>
+      <c r="DG7" s="12">
+        <v>3</v>
+      </c>
       <c r="DH7" s="12"/>
       <c r="DI7" s="12"/>
-      <c r="DJ7" s="12"/>
+      <c r="DJ7" s="12">
+        <v>6</v>
+      </c>
       <c r="DK7" s="12"/>
       <c r="DL7" s="12"/>
       <c r="DM7" s="12"/>
@@ -3580,7 +3590,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>

--- a/佐藤司update用/佐藤司＿スケジュール表.xlsx
+++ b/佐藤司update用/佐藤司＿スケジュール表.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:EB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DI7" sqref="DI7"/>
+      <selection activeCell="DP7" sqref="DP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2793,19 +2793,27 @@
         <v>6</v>
       </c>
       <c r="DK7" s="12"/>
-      <c r="DL7" s="12"/>
+      <c r="DL7" s="12">
+        <v>3</v>
+      </c>
       <c r="DM7" s="12"/>
       <c r="DN7" s="12"/>
       <c r="DO7" s="12"/>
       <c r="DP7" s="12"/>
-      <c r="DQ7" s="12"/>
+      <c r="DQ7" s="12">
+        <v>3</v>
+      </c>
       <c r="DR7" s="12"/>
-      <c r="DS7" s="12"/>
+      <c r="DS7" s="12">
+        <v>3</v>
+      </c>
       <c r="DT7" s="12"/>
       <c r="DU7" s="12"/>
       <c r="DV7" s="12"/>
       <c r="DW7" s="12"/>
-      <c r="DX7" s="12"/>
+      <c r="DX7" s="12">
+        <v>6</v>
+      </c>
       <c r="DY7" s="12"/>
       <c r="DZ7" s="12"/>
       <c r="EA7" s="12"/>
@@ -3590,7 +3598,7 @@
       </c>
       <c r="L13" s="7">
         <f>SUM(L4:L12)</f>
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
